--- a/VIATURAS - teste.xlsx
+++ b/VIATURAS - teste.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Desktop\VIATURAS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BC60D4-842B-4521-A79D-C0BF03F08FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -201,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -276,7 +282,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -581,21 +587,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,7 +652,7 @@
         <v>51</v>
       </c>
       <c r="F2" s="3">
-        <v>44921</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -666,7 +672,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="3">
-        <v>38488</v>
+        <v>45313</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,7 +692,7 @@
         <v>52</v>
       </c>
       <c r="F4" s="3">
-        <v>39140</v>
+        <v>44918</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -706,7 +712,7 @@
         <v>52</v>
       </c>
       <c r="F5" s="3">
-        <v>37237</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -726,7 +732,7 @@
         <v>51</v>
       </c>
       <c r="F6" s="3">
-        <v>37237</v>
+        <v>45365</v>
       </c>
       <c r="G6" s="6"/>
     </row>
@@ -747,7 +753,7 @@
         <v>51</v>
       </c>
       <c r="F7" s="3">
-        <v>44074</v>
+        <v>45267</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -767,7 +773,7 @@
         <v>52</v>
       </c>
       <c r="F8" s="3">
-        <v>44592</v>
+        <v>45086</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>53</v>
@@ -790,7 +796,7 @@
         <v>52</v>
       </c>
       <c r="F9" s="3">
-        <v>37237</v>
+        <v>45212</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -810,7 +816,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="3">
-        <v>39478</v>
+        <v>44553</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -830,7 +836,7 @@
         <v>52</v>
       </c>
       <c r="F11" s="3">
-        <v>42495</v>
+        <v>42538</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -850,7 +856,7 @@
         <v>52</v>
       </c>
       <c r="F12" s="3">
-        <v>44286</v>
+        <v>45252</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,7 +876,7 @@
         <v>52</v>
       </c>
       <c r="F13" s="3">
-        <v>43817</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -890,7 +896,7 @@
         <v>52</v>
       </c>
       <c r="F14" s="3">
-        <v>42955</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,7 +916,7 @@
         <v>51</v>
       </c>
       <c r="F15" s="3">
-        <v>42697</v>
+        <v>44907</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -930,7 +936,7 @@
         <v>52</v>
       </c>
       <c r="F16" s="3">
-        <v>36243</v>
+        <v>45323</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>54</v>
@@ -953,7 +959,7 @@
         <v>52</v>
       </c>
       <c r="F17" s="3">
-        <v>37916</v>
+        <v>45110</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>53</v>
@@ -976,7 +982,7 @@
         <v>52</v>
       </c>
       <c r="F18" s="3">
-        <v>37663</v>
+        <v>45160</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>55</v>
@@ -999,7 +1005,7 @@
         <v>52</v>
       </c>
       <c r="F19" s="3">
-        <v>36790</v>
+        <v>45202</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>53</v>
@@ -1022,7 +1028,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="3">
-        <v>40927</v>
+        <v>45272</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>53</v>
@@ -1045,7 +1051,7 @@
         <v>52</v>
       </c>
       <c r="F21" s="3">
-        <v>39478</v>
+        <v>45323</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>56</v>
@@ -1068,7 +1074,7 @@
         <v>52</v>
       </c>
       <c r="F22" s="3">
-        <v>43879</v>
+        <v>45288</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>53</v>
@@ -1091,7 +1097,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="3">
-        <v>39478</v>
+        <v>45250</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1111,22 +1117,22 @@
         <v>52</v>
       </c>
       <c r="F24" s="3">
-        <v>39140</v>
+        <v>45124</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:G24">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
     <sortCondition ref="A2:A24"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G8" r:id="rId1"/>
-    <hyperlink ref="G19" r:id="rId2"/>
-    <hyperlink ref="G20" r:id="rId3"/>
-    <hyperlink ref="G17" r:id="rId4"/>
-    <hyperlink ref="G22" r:id="rId5"/>
-    <hyperlink ref="G16" r:id="rId6"/>
-    <hyperlink ref="G18" r:id="rId7"/>
-    <hyperlink ref="G21" r:id="rId8"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G19" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G20" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G17" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G22" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G18" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="G21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
